--- a/test/emotion/약250곡감정분석자료.xlsx
+++ b/test/emotion/약250곡감정분석자료.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="2129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="2131">
   <si>
     <t>lyricsno</t>
   </si>
@@ -6400,6 +6400,12 @@
   </si>
   <si>
     <t>사랑은다아픈거니까</t>
+  </si>
+  <si>
+    <t>이상형</t>
+  </si>
+  <si>
+    <t>버스커버스커</t>
   </si>
 </sst>
 </file>
@@ -6765,16 +6771,16 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -6789,25 +6795,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -6822,7 +6836,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -6837,7 +6853,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -6852,13 +6870,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -6867,7 +6889,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="50">
@@ -7253,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView topLeftCell="A43" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -8998,10 +9022,10 @@
         <v>58</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>2023</v>
+        <v>2129</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>477</v>
+        <v>2130</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
